--- a/OutputData/Exceloutputfile.xlsx
+++ b/OutputData/Exceloutputfile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>COURSE NAME</t>
   </si>
@@ -31,6 +31,105 @@
   </si>
   <si>
     <t>LEVEL</t>
+  </si>
+  <si>
+    <t>IBM Full-Stack JavaScript Developer</t>
+  </si>
+  <si>
+    <t>IBM Full-Stack JavaScript Developer Professional Certificate</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>at 10 hours a week</t>
+  </si>
+  <si>
+    <t>Automation in the AWS Cloud</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>8 hours (approximately)</t>
+  </si>
+  <si>
+    <t>English(420)</t>
+  </si>
+  <si>
+    <t>Arabic(239)</t>
+  </si>
+  <si>
+    <t>Spanish(236)</t>
+  </si>
+  <si>
+    <t>French(231)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil)(221)</t>
+  </si>
+  <si>
+    <t>German(215)</t>
+  </si>
+  <si>
+    <t>Indonesian(215)</t>
+  </si>
+  <si>
+    <t>Ukrainian(214)</t>
+  </si>
+  <si>
+    <t>Japanese(213)</t>
+  </si>
+  <si>
+    <t>Turkish(213)</t>
+  </si>
+  <si>
+    <t>Chinese (China)(212)</t>
+  </si>
+  <si>
+    <t>Dutch(212)</t>
+  </si>
+  <si>
+    <t>Greek(212)</t>
+  </si>
+  <si>
+    <t>Hindi(212)</t>
+  </si>
+  <si>
+    <t>Italian(212)</t>
+  </si>
+  <si>
+    <t>Korean(212)</t>
+  </si>
+  <si>
+    <t>Polish(212)</t>
+  </si>
+  <si>
+    <t>Swedish(212)</t>
+  </si>
+  <si>
+    <t>Thai(212)</t>
+  </si>
+  <si>
+    <t>Russian(189)</t>
+  </si>
+  <si>
+    <t>Kazakh(182)</t>
+  </si>
+  <si>
+    <t>Hungarian(148)</t>
+  </si>
+  <si>
+    <t>Beginner(420)</t>
+  </si>
+  <si>
+    <t>Intermediate(414)</t>
+  </si>
+  <si>
+    <t>Advanced(34)</t>
+  </si>
+  <si>
+    <t>Mixed(71)</t>
   </si>
 </sst>
 </file>
@@ -81,7 +180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -101,6 +200,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -108,7 +235,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -122,6 +249,128 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
